--- a/assets/excel file/Catalog Database Sheet - Search and Sourcing.xlsx
+++ b/assets/excel file/Catalog Database Sheet - Search and Sourcing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hao\Desktop\Hao Dong io\haodong191.github.io\assets\excel file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C60BBC0-1470-40E6-929B-345D8A0FF68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4F853E-B623-4EA3-9C73-DB455D0F60D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{55169C12-04F5-4AC6-B71B-75EB8F464ABA}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{55169C12-04F5-4AC6-B71B-75EB8F464ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="Search and Sourcing" sheetId="2" r:id="rId1"/>
@@ -540,13 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FF064E41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,9 +654,8 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -675,21 +674,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF064E41"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -923,40 +957,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -971,19 +971,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F30C35A2-C738-412B-890A-ED85E6049062}" name="Table5" displayName="Table5" ref="A2:J96" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F30C35A2-C738-412B-890A-ED85E6049062}" name="Table5" displayName="Table5" ref="A2:J96" totalsRowShown="0" headerRowDxfId="0" dataDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A2:J96" xr:uid="{F30C35A2-C738-412B-890A-ED85E6049062}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A7A4EAF8-9053-4A15-BA82-0C09FF5FE296}" name="Vendor Part Number" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{0BDF5131-5CD7-4AD2-A8C4-231D238C4C6B}" name="Vendor Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{7BE1F134-0A7A-4A31-91A1-9074DF306AD1}" name="UPC" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{F83A1A27-399B-47E4-A89C-58C1931E32B0}" name="Product Name" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{D243E27D-EE14-412D-8265-D77F202EB22D}" name="Unit(s)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{51565EED-A627-4DEB-BB15-87666DC2A9CC}" name="Count" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{951655C0-33CD-403A-8D6D-CAC7C0DC3949}" name="Weight" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{C164521F-9991-43EB-BBCA-BCD7A9E6559F}" name="Class" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{D6DCB013-FC71-4D63-AFA6-8793C37618BB}" name="QTY" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{4BF4D68D-289D-4773-8E97-C902898A8303}" name="In-House Part Number" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{A7A4EAF8-9053-4A15-BA82-0C09FF5FE296}" name="Vendor Part Number" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{0BDF5131-5CD7-4AD2-A8C4-231D238C4C6B}" name="Vendor Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{7BE1F134-0A7A-4A31-91A1-9074DF306AD1}" name="UPC" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F83A1A27-399B-47E4-A89C-58C1931E32B0}" name="Product Name" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{D243E27D-EE14-412D-8265-D77F202EB22D}" name="Unit(s)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{51565EED-A627-4DEB-BB15-87666DC2A9CC}" name="Count" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{951655C0-33CD-403A-8D6D-CAC7C0DC3949}" name="Weight" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{C164521F-9991-43EB-BBCA-BCD7A9E6559F}" name="Class" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{D6DCB013-FC71-4D63-AFA6-8793C37618BB}" name="QTY" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{4BF4D68D-289D-4773-8E97-C902898A8303}" name="In-House Part Number" dataDxfId="5">
       <calculatedColumnFormula>IF(H3="Office Supply", A3 &amp; "-OS", IF(H3="Food Product", A3 &amp; "-FP", "ERROR"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5591908-A046-4C55-BA05-40C9131C2C97}">
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1341,96 +1341,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="L1" s="4" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="L1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="P2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1466,42 +1466,42 @@
         <f>IF(H3="Office Supply", A3 &amp; "-OS", IF(H3="Food Product", A3 &amp; "-FP", "ERROR"))</f>
         <v>1234-001-OS</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="5" t="str" cm="1">
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="str" cm="1">
         <f t="array" ref="N3:W6">_xlfn._xlws.SORT(
     _xlfn._xlws.FILTER(A:J, ISNUMBER(SEARCH(L3, D:D)), "No match"),
     9, -1
 )</f>
         <v>1234-077</v>
       </c>
-      <c r="O3" s="5" t="str">
+      <c r="O3" s="4" t="str">
         <v>Aecme</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>72527273074</v>
       </c>
-      <c r="Q3" s="5" t="str">
+      <c r="Q3" s="4" t="str">
         <v>Gala Apples</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>10</v>
       </c>
-      <c r="S3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="5" t="str">
+      <c r="S3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="4" t="str">
         <v>Food Product</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="4">
         <v>30</v>
       </c>
-      <c r="W3" s="5" t="str">
+      <c r="W3" s="4" t="str">
         <v>1234-077-FP</v>
       </c>
     </row>
@@ -1537,36 +1537,36 @@
         <f t="shared" ref="J4:J24" si="0">IF(H4="Office Supply", A4 &amp; "-OS", IF(H4="Food Product", A4 &amp; "-FP", "ERROR"))</f>
         <v>1234-002-FP</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5" t="str">
+      <c r="L4" s="10"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4" t="str">
         <v>1234-029</v>
       </c>
-      <c r="O4" s="5" t="str">
+      <c r="O4" s="4" t="str">
         <v>Top Teir Distribution</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>72527273074</v>
       </c>
-      <c r="Q4" s="5" t="str">
+      <c r="Q4" s="4" t="str">
         <v>Gala Apples</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>10</v>
       </c>
-      <c r="S4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="5" t="str">
+      <c r="S4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4" t="str">
         <v>Food Product</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <v>14</v>
       </c>
-      <c r="W4" s="5" t="str">
+      <c r="W4" s="4" t="str">
         <v>1234-029-FP</v>
       </c>
     </row>
@@ -1602,36 +1602,36 @@
         <f t="shared" si="0"/>
         <v>1234-003-OS</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5" t="str">
+      <c r="L5" s="9"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4" t="str">
         <v>1234-005</v>
       </c>
-      <c r="O5" s="5" t="str">
+      <c r="O5" s="4" t="str">
         <v>Northeast Distribution</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>72527273074</v>
       </c>
-      <c r="Q5" s="5" t="str">
+      <c r="Q5" s="4" t="str">
         <v>Gala Apples</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>10</v>
       </c>
-      <c r="S5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="5" t="str">
+      <c r="S5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="str">
         <v>Food Product</v>
       </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5" t="str">
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4" t="str">
         <v>1234-005-FP</v>
       </c>
     </row>
@@ -1667,38 +1667,38 @@
         <f t="shared" si="0"/>
         <v>1234-004-OS</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="5" t="str">
+      <c r="M6" s="2"/>
+      <c r="N6" s="4" t="str">
         <v>1234-053</v>
       </c>
-      <c r="O6" s="5" t="str">
+      <c r="O6" s="4" t="str">
         <v xml:space="preserve">You-Line </v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>72527273074</v>
       </c>
-      <c r="Q6" s="5" t="str">
+      <c r="Q6" s="4" t="str">
         <v>Gala Apples</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <v>10</v>
       </c>
-      <c r="S6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" s="5" t="str">
+      <c r="S6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4" t="str">
         <v>Food Product</v>
       </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5" t="str">
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="str">
         <v>1234-053-FP</v>
       </c>
     </row>
@@ -1734,10 +1734,10 @@
         <f t="shared" si="0"/>
         <v>1234-005-FP</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1771,10 +1771,10 @@
         <f t="shared" si="0"/>
         <v>1234-006-FP</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1808,10 +1808,10 @@
         <f t="shared" si="0"/>
         <v>1234-007-OS</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1845,10 +1845,10 @@
         <f t="shared" si="0"/>
         <v>1234-009-FP</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1882,7 +1882,7 @@
         <f t="shared" si="0"/>
         <v>1234-011-FP</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
         <f t="shared" si="0"/>
         <v>1234-012-OS</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <f t="shared" si="0"/>
         <v>1234-013-OS</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
         <f t="shared" si="0"/>
         <v>1234-014-FP</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="7" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
         <f t="shared" si="0"/>
         <v>1234-015-FP</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -2060,7 +2060,7 @@
         <f t="shared" si="0"/>
         <v>1234-016-OS</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -2094,7 +2094,7 @@
         <f t="shared" si="0"/>
         <v>1234-017-FP</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -2128,7 +2128,7 @@
         <f t="shared" si="0"/>
         <v>1234-018-OS</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -2162,7 +2162,7 @@
         <f t="shared" si="0"/>
         <v>1234-019-OS</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2196,7 +2196,7 @@
         <f t="shared" si="0"/>
         <v>1234-020-FP</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -2230,7 +2230,7 @@
         <f t="shared" si="0"/>
         <v>1234-021-OS</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -2264,7 +2264,7 @@
         <f t="shared" si="0"/>
         <v>1234-022-FP</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -2298,7 +2298,7 @@
         <f t="shared" si="0"/>
         <v>1234-023-FP</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -2332,7 +2332,7 @@
         <f t="shared" si="0"/>
         <v>1234-024-OS</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -2366,7 +2366,7 @@
         <f>IF(H25="Office Supply", A25 &amp; "-OS", IF(H25="Food Product", A25 &amp; "-FP", "ERROR"))</f>
         <v>1234-025-OS</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -2400,7 +2400,7 @@
         <f t="shared" ref="J26:J48" si="1">IF(H26="Office Supply", A26 &amp; "-OS", IF(H26="Food Product", A26 &amp; "-FP", "ERROR"))</f>
         <v>1234-026-FP</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -2434,7 +2434,7 @@
         <f t="shared" si="1"/>
         <v>1234-027-OS</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -2468,7 +2468,7 @@
         <f t="shared" si="1"/>
         <v>1234-028-OS</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -4720,16 +4720,16 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="N3:W6">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($V3&gt;=11, $V3&lt;=19)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$V3&lt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$V3&gt;20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND($V3&gt;=2, $V3&lt;=10)</formula>
     </cfRule>
   </conditionalFormatting>
